--- a/GSMPL EBITA Understanding Doc 09092025.xlsx
+++ b/GSMPL EBITA Understanding Doc 09092025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fc378b064a2221d/Creative Cosmos/Office Projects/TCG Digital/GSMPL/EBITDA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aritramondal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{2CEDD640-376A-7F46-A5D3-E5F1B9E71D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C186D53D-64FD-4904-AB51-8564980DF30C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEDD640-376A-7F46-A5D3-E5F1B9E71D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24800" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBITA Calculation" sheetId="1" r:id="rId1"/>
@@ -2446,24 +2446,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="121.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="31.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="121.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="65.1640625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>136</v>
       </c>
@@ -2471,7 +2468,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>121</v>
       </c>
@@ -2479,7 +2476,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>119</v>
       </c>
@@ -2487,7 +2484,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>122</v>
       </c>
@@ -2495,7 +2492,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>124</v>
       </c>
@@ -2503,7 +2500,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>134</v>
       </c>
@@ -2511,7 +2508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>127</v>
       </c>
@@ -2519,7 +2516,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>135</v>
       </c>
@@ -2527,7 +2524,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>129</v>
       </c>
@@ -2535,7 +2532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>130</v>
       </c>
@@ -2543,7 +2540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>132</v>
       </c>
@@ -2551,7 +2548,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>139</v>
       </c>
@@ -2571,7 +2568,6 @@
     <hyperlink ref="A2" location="'Subtotal Corporate Expenses'!A1" display="Subtotal corporate Expense" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2583,30 +2579,30 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2624,7 @@
       <c r="Q1" s="42"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2685,7 +2681,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -2712,7 +2708,7 @@
       </c>
       <c r="S3" s="46"/>
     </row>
-    <row r="4" spans="1:19" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -2739,7 +2735,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -2783,7 +2779,6 @@
     <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2795,30 +2790,30 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,7 +2897,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2929,7 +2924,7 @@
       </c>
       <c r="S3" s="58"/>
     </row>
-    <row r="4" spans="1:19" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -2956,7 +2951,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -2983,7 +2978,7 @@
       </c>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3010,7 +3005,7 @@
       </c>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -3037,7 +3032,7 @@
       </c>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -3064,7 +3059,7 @@
       </c>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -3091,7 +3086,7 @@
       </c>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="78" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -3120,7 +3115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="39" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
@@ -3169,7 +3164,6 @@
     <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3181,30 +3175,30 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -3226,7 +3220,7 @@
       <c r="Q1" s="42"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,7 +3277,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>98</v>
       </c>
@@ -3295,7 +3289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>27</v>
       </c>
@@ -3318,7 +3312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>28</v>
       </c>
@@ -3341,7 +3335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>29</v>
       </c>
@@ -3364,7 +3358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
@@ -3401,7 +3395,6 @@
     <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3413,30 +3406,30 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3451,7 @@
       <c r="Q1" s="42"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3515,7 +3508,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>26</v>
       </c>
@@ -3547,7 +3540,6 @@
     <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3559,30 +3551,30 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -3609,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3666,7 +3658,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3693,7 +3685,7 @@
       </c>
       <c r="S3" s="58"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3718,7 +3710,7 @@
       <c r="R4" s="59"/>
       <c r="S4" s="60"/>
     </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -3743,7 +3735,7 @@
       <c r="R5" s="59"/>
       <c r="S5" s="60"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3768,7 +3760,7 @@
       <c r="R6" s="59"/>
       <c r="S6" s="60"/>
     </row>
-    <row r="7" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3790,7 +3782,7 @@
       <c r="R7" s="61"/>
       <c r="S7" s="62"/>
     </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3825,7 +3817,7 @@
       </c>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3852,7 +3844,7 @@
       </c>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3879,7 +3871,7 @@
       </c>
       <c r="S10" s="46"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3906,7 +3898,7 @@
       </c>
       <c r="S11" s="46"/>
     </row>
-    <row r="12" spans="1:19" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3933,7 +3925,7 @@
       </c>
       <c r="S12" s="46"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3960,7 +3952,7 @@
       </c>
       <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3987,7 +3979,7 @@
       </c>
       <c r="S14" s="46"/>
     </row>
-    <row r="15" spans="1:19" ht="84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="78" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4016,7 +4008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="39" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -4049,7 +4041,7 @@
       <c r="R16" s="47"/>
       <c r="S16" s="48"/>
     </row>
-    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -4082,7 +4074,7 @@
       <c r="R17" s="47"/>
       <c r="S17" s="48"/>
     </row>
-    <row r="18" spans="1:19" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -4109,7 +4101,7 @@
       </c>
       <c r="S18" s="46"/>
     </row>
-    <row r="19" spans="1:19" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -4136,7 +4128,7 @@
       </c>
       <c r="S19" s="46"/>
     </row>
-    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>60</v>
       </c>
@@ -4167,7 +4159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>62</v>
       </c>
@@ -4198,7 +4190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -4225,7 +4217,7 @@
       </c>
       <c r="S22" s="46"/>
     </row>
-    <row r="23" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>15</v>
       </c>
@@ -4252,7 +4244,7 @@
       </c>
       <c r="S23" s="46"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -4279,7 +4271,7 @@
       </c>
       <c r="S24" s="46"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -4306,7 +4298,7 @@
       </c>
       <c r="S25" s="46"/>
     </row>
-    <row r="26" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -4333,7 +4325,7 @@
       </c>
       <c r="S26" s="46"/>
     </row>
-    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -4360,7 +4352,7 @@
       </c>
       <c r="S27" s="46"/>
     </row>
-    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -4387,7 +4379,7 @@
       </c>
       <c r="S28" s="46"/>
     </row>
-    <row r="29" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
@@ -4418,7 +4410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>80</v>
       </c>
@@ -4451,7 +4443,7 @@
       <c r="R30" s="45"/>
       <c r="S30" s="46"/>
     </row>
-    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -4478,7 +4470,7 @@
       </c>
       <c r="S31" s="46"/>
     </row>
-    <row r="32" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -4505,7 +4497,7 @@
       </c>
       <c r="S32" s="46"/>
     </row>
-    <row r="33" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -4532,7 +4524,7 @@
       </c>
       <c r="S33" s="46"/>
     </row>
-    <row r="34" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>24</v>
       </c>
@@ -4559,7 +4551,7 @@
       </c>
       <c r="S34" s="46"/>
     </row>
-    <row r="35" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>92</v>
       </c>
@@ -4619,7 +4611,7 @@
       <c r="R36" s="47"/>
       <c r="S36" s="48"/>
     </row>
-    <row r="37" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -4644,7 +4636,7 @@
       <c r="R37" s="47"/>
       <c r="S37" s="48"/>
     </row>
-    <row r="38" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>95</v>
       </c>
@@ -4679,7 +4671,7 @@
       </c>
       <c r="S38" s="54"/>
     </row>
-    <row r="39" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>98</v>
       </c>
@@ -4691,7 +4683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>27</v>
       </c>
@@ -4714,7 +4706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -4737,7 +4729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -4760,7 +4752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>103</v>
       </c>
@@ -4791,7 +4783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>105</v>
       </c>
@@ -4822,7 +4814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
@@ -4839,7 +4831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>109</v>
       </c>
@@ -4856,7 +4848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>110</v>
       </c>
@@ -4873,7 +4865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>111</v>
       </c>
@@ -4890,7 +4882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" ht="39" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>112</v>
       </c>
@@ -4930,45 +4922,41 @@
     <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11:S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="14" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="14" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="14" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="14" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="14" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="14" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="14"/>
+    <col min="18" max="18" width="58.33203125" style="14" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="14" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="73.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
@@ -5052,7 +5040,7 @@
       </c>
       <c r="S2" s="31"/>
     </row>
-    <row r="3" spans="1:19" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -5079,7 +5067,7 @@
       </c>
       <c r="S3" s="33"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -5104,7 +5092,7 @@
       <c r="R4" s="34"/>
       <c r="S4" s="35"/>
     </row>
-    <row r="5" spans="1:19" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -5129,7 +5117,7 @@
       <c r="R5" s="34"/>
       <c r="S5" s="35"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -5154,7 +5142,7 @@
       <c r="R6" s="34"/>
       <c r="S6" s="35"/>
     </row>
-    <row r="7" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>30</v>
       </c>
@@ -5176,7 +5164,7 @@
       <c r="R7" s="36"/>
       <c r="S7" s="37"/>
     </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
@@ -5211,49 +5199,49 @@
       </c>
       <c r="S8" s="28"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="27"/>
       <c r="S9" s="28"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="27"/>
       <c r="S10" s="28"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="27"/>
       <c r="S11" s="28"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="27"/>
       <c r="S12" s="28"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="27"/>
       <c r="S13" s="28"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="27"/>
       <c r="S14" s="28"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="27"/>
       <c r="S15" s="28"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -5274,7 +5262,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -5295,19 +5283,19 @@
       <c r="R17" s="38"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="27"/>
       <c r="S18" s="28"/>
     </row>
-    <row r="19" spans="1:19" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="27"/>
       <c r="S19" s="28"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -5326,7 +5314,7 @@
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -5345,51 +5333,51 @@
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="27"/>
       <c r="S22" s="28"/>
     </row>
-    <row r="23" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="27"/>
       <c r="S23" s="28"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="27"/>
       <c r="S24" s="28"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="27"/>
       <c r="S25" s="28"/>
     </row>
-    <row r="26" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="27"/>
       <c r="S26" s="28"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="27"/>
       <c r="S27" s="28"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="27"/>
       <c r="S28" s="28"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -5408,7 +5396,7 @@
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -5427,37 +5415,37 @@
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
     </row>
-    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="27"/>
       <c r="S31" s="28"/>
     </row>
-    <row r="32" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="27"/>
       <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="27"/>
       <c r="S33" s="28"/>
     </row>
-    <row r="34" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="27"/>
       <c r="S34" s="28"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="27"/>
       <c r="S35" s="28"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -5478,13 +5466,13 @@
       <c r="R36" s="38"/>
       <c r="S36" s="39"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="38"/>
       <c r="S37" s="39"/>
     </row>
-    <row r="38" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -5505,25 +5493,25 @@
       <c r="R38" s="40"/>
       <c r="S38" s="41"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -5542,7 +5530,7 @@
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -5561,23 +5549,23 @@
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
     </row>
@@ -5615,7 +5603,6 @@
     <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5623,34 +5610,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -5672,7 +5659,7 @@
       <c r="Q1" s="42"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5729,7 +5716,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5750,7 +5737,7 @@
       <c r="R3" s="45"/>
       <c r="S3" s="46"/>
     </row>
-    <row r="4" spans="1:19" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -5777,7 +5764,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -5804,7 +5791,7 @@
       </c>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -5831,7 +5818,7 @@
       </c>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -5858,7 +5845,7 @@
       </c>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -5885,7 +5872,7 @@
       </c>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -5912,7 +5899,7 @@
       </c>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="78" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -5941,7 +5928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="39" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
@@ -5974,7 +5961,7 @@
       <c r="R11" s="47"/>
       <c r="S11" s="48"/>
     </row>
-    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
@@ -6009,19 +5996,19 @@
       </c>
       <c r="S12" s="46"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="45"/>
       <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="45"/>
       <c r="S14" s="46"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6042,7 +6029,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6063,7 +6050,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -6084,7 +6071,7 @@
       <c r="R17" s="12"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -6105,7 +6092,7 @@
       <c r="R18" s="12"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -6126,7 +6113,7 @@
       <c r="R19" s="12"/>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -6147,7 +6134,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="13"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -6168,7 +6155,7 @@
       <c r="R21" s="12"/>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -6189,7 +6176,7 @@
       <c r="R22" s="12"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -6210,7 +6197,7 @@
       <c r="R23" s="12"/>
       <c r="S23" s="13"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -6231,7 +6218,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -6252,7 +6239,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -6273,7 +6260,7 @@
       <c r="R26" s="12"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -6294,7 +6281,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="13"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -6315,7 +6302,7 @@
       <c r="R28" s="12"/>
       <c r="S28" s="13"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -6336,7 +6323,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="13"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -6357,7 +6344,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="13"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -6378,7 +6365,7 @@
       <c r="R31" s="12"/>
       <c r="S31" s="13"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -6399,7 +6386,7 @@
       <c r="R32" s="12"/>
       <c r="S32" s="13"/>
     </row>
-    <row r="33" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -6420,7 +6407,7 @@
       <c r="R33" s="12"/>
       <c r="S33" s="13"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6441,7 +6428,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -6462,7 +6449,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -6483,7 +6470,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6504,7 +6491,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6525,7 +6512,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6546,7 +6533,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -6567,7 +6554,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -6588,7 +6575,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -6609,11 +6596,11 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
@@ -6634,45 +6621,41 @@
     <mergeCell ref="R5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -6694,7 +6677,7 @@
       <c r="Q1" s="42"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -6751,7 +6734,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -6778,7 +6761,7 @@
       </c>
       <c r="S3" s="46"/>
     </row>
-    <row r="4" spans="1:19" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -6805,7 +6788,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -6838,7 +6821,7 @@
       <c r="R5" s="45"/>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -6882,46 +6865,42 @@
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="R2:S2"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R10" sqref="R10:S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -6943,7 +6922,7 @@
       <c r="Q1" s="42"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -7000,7 +6979,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>14</v>
       </c>
@@ -7027,7 +7006,7 @@
       </c>
       <c r="S3" s="46"/>
     </row>
-    <row r="4" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -7054,7 +7033,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -7081,7 +7060,7 @@
       </c>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -7108,7 +7087,7 @@
       </c>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -7135,7 +7114,7 @@
       </c>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -7162,7 +7141,7 @@
       </c>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -7189,7 +7168,7 @@
       </c>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -7224,7 +7203,7 @@
       </c>
       <c r="S10" s="46"/>
     </row>
-    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
@@ -7274,45 +7253,41 @@
     <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -7339,7 +7314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -7396,7 +7371,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>80</v>
       </c>
@@ -7431,7 +7406,7 @@
       </c>
       <c r="S3" s="52"/>
     </row>
-    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>21</v>
       </c>
@@ -7458,7 +7433,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -7485,7 +7460,7 @@
       </c>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>23</v>
       </c>
@@ -7512,7 +7487,7 @@
       </c>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -7539,7 +7514,7 @@
       </c>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -7566,7 +7541,7 @@
       </c>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>92</v>
       </c>
@@ -7599,7 +7574,7 @@
       <c r="R9" s="47"/>
       <c r="S9" s="48"/>
     </row>
-    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>26</v>
       </c>
@@ -7624,7 +7599,7 @@
       <c r="R10" s="47"/>
       <c r="S10" s="48"/>
     </row>
-    <row r="11" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>95</v>
       </c>
@@ -7674,45 +7649,41 @@
     <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -7734,7 +7705,7 @@
       <c r="Q1" s="42"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -7791,7 +7762,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -7826,7 +7797,7 @@
       </c>
       <c r="S3" s="54"/>
     </row>
-    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>98</v>
       </c>
@@ -7838,7 +7809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>27</v>
       </c>
@@ -7861,7 +7832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -7884,7 +7855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>29</v>
       </c>
@@ -7907,7 +7878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -7940,7 +7911,7 @@
       <c r="R8" s="45"/>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>105</v>
       </c>
@@ -7975,7 +7946,7 @@
       </c>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>107</v>
       </c>
@@ -7992,7 +7963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
@@ -8009,7 +7980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>110</v>
       </c>
@@ -8026,7 +7997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>111</v>
       </c>
@@ -8043,7 +8014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="39" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>112</v>
       </c>
@@ -8058,45 +8029,41 @@
     <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -8123,7 +8090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -8180,7 +8147,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -8207,7 +8174,7 @@
       </c>
       <c r="S3" s="46"/>
     </row>
-    <row r="4" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>22</v>
       </c>
@@ -8234,7 +8201,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>23</v>
       </c>
@@ -8261,7 +8228,7 @@
       </c>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -8288,7 +8255,7 @@
       </c>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -8315,7 +8282,7 @@
       </c>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
@@ -8362,7 +8329,6 @@
     <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8374,30 +8340,30 @@
       <selection activeCell="R13" sqref="R13:S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="58.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="58.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -8424,7 +8390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -8481,7 +8447,7 @@
       </c>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>14</v>
       </c>
@@ -8508,7 +8474,7 @@
       </c>
       <c r="S3" s="46"/>
     </row>
-    <row r="4" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -8535,7 +8501,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -8562,7 +8528,7 @@
       </c>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -8589,7 +8555,7 @@
       </c>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -8616,7 +8582,7 @@
       </c>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -8643,7 +8609,7 @@
       </c>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -8670,7 +8636,7 @@
       </c>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -8705,7 +8671,7 @@
       </c>
       <c r="S10" s="46"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8726,37 +8692,37 @@
       <c r="R11" s="45"/>
       <c r="S11" s="46"/>
     </row>
-    <row r="12" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="45"/>
       <c r="S12" s="46"/>
     </row>
-    <row r="13" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="45"/>
       <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="45"/>
       <c r="S14" s="46"/>
     </row>
-    <row r="15" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="45"/>
       <c r="S15" s="46"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="45"/>
       <c r="S16" s="46"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -8777,13 +8743,13 @@
       <c r="R17" s="47"/>
       <c r="S17" s="48"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="47"/>
       <c r="S18" s="48"/>
     </row>
-    <row r="19" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -8804,25 +8770,25 @@
       <c r="R19" s="53"/>
       <c r="S19" s="54"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -8841,7 +8807,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -8860,23 +8826,23 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
@@ -8903,6 +8869,5 @@
     <mergeCell ref="R5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>